--- a/tables/or.xlsx
+++ b/tables/or.xlsx
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.54</v>
+        <v>2.96</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -472,10 +472,10 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2" t="n">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="P2" t="n">
-        <v>348</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -486,11 +486,11 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.68</v>
+        <v>3.29</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -500,10 +500,10 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="N3" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -516,12 +516,12 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.35</v>
+        <v>3.26</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>0.3915</v>
+        <v>0.25428</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -530,10 +530,10 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="N4" t="n">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -546,26 +546,26 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.82</v>
+        <v>1.74</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.787651348437086</v>
+        <v>0.235483392831706</v>
       </c>
       <c r="H5" t="n">
-        <v>43.0043064957764</v>
+        <v>12.8569576121393</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="N5" t="n">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -578,11 +578,11 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.03</v>
+        <v>1.44</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>0.56</v>
+        <v>0.96</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -594,10 +594,10 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6" t="n">
-        <v>161</v>
+        <v>500</v>
       </c>
       <c r="P6" t="n">
-        <v>153</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7">
@@ -608,12 +608,12 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.11</v>
+        <v>4.02</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7" t="n">
-        <v>0.00616</v>
+        <v>0.38592</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -624,10 +624,10 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="P7" t="n">
-        <v>408</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -638,16 +638,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5.14</v>
+        <v>0.83</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.695623355836189</v>
+        <v>0.112328285086389</v>
       </c>
       <c r="H8" t="n">
-        <v>37.9797483485035</v>
+        <v>6.13291656211244</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -656,10 +656,10 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>244</v>
+        <v>432</v>
       </c>
       <c r="P8" t="n">
-        <v>249</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9">
@@ -670,11 +670,11 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.52</v>
+        <v>1.85</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -682,7 +682,7 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="n">
-        <v>0.422</v>
+        <v>0.145</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -698,19 +698,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="n">
-        <v>0.0117</v>
+        <v>0.03869</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="n">
-        <v>0.354</v>
+        <v>0.267</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -726,21 +726,21 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2.24</v>
+        <v>5.99</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>0.303151034450012</v>
+        <v>0.81065834658731</v>
       </c>
       <c r="H11" t="n">
-        <v>16.5514856616047</v>
+        <v>44.2604460325946</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>0.178</v>
+        <v>0.033</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -756,11 +756,11 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3.03</v>
+        <v>0.61</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -769,14 +769,14 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>0.162</v>
+        <v>0.186</v>
       </c>
       <c r="M12" t="n">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P12"/>
     </row>
@@ -788,12 +788,12 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>4.04</v>
+        <v>4.6</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>0.001818</v>
+        <v>0.000644</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -801,14 +801,14 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="M13" t="n">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="P13"/>
     </row>
@@ -820,29 +820,29 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2.35</v>
+        <v>0.16</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>0.31803791560604</v>
+        <v>0.021653645317858</v>
       </c>
       <c r="H14" t="n">
-        <v>17.364281832487</v>
+        <v>1.1822489758289</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>0.126</v>
+        <v>0.1</v>
       </c>
       <c r="M14" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="P14"/>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>-0.616186139423817</v>
+        <v>1.08518926833597</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -868,10 +868,10 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="P15" t="n">
-        <v>259</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -883,10 +883,10 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>1.54329810992956</v>
+        <v>1.19088756477728</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -896,10 +896,10 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>228</v>
+        <v>445</v>
       </c>
       <c r="N16" t="n">
-        <v>227</v>
+        <v>451</v>
       </c>
       <c r="O16"/>
       <c r="P16"/>
@@ -913,11 +913,11 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>1.47017584510059</v>
+        <v>1.18172719537862</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>0.0735087922550296</v>
+        <v>0.0779939948949887</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -926,10 +926,10 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>372</v>
+        <v>477</v>
       </c>
       <c r="N17" t="n">
-        <v>374</v>
+        <v>486</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
@@ -943,25 +943,25 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>1.76130026174335</v>
+        <v>0.553885113226438</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="n">
-        <v>-0.238699738256654</v>
+        <v>-1.44611488677356</v>
       </c>
       <c r="J18" t="n">
-        <v>3.76130026174335</v>
+        <v>2.55388511322644</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18" t="n">
-        <v>495</v>
+        <v>234</v>
       </c>
       <c r="N18" t="n">
-        <v>494</v>
+        <v>240</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
@@ -975,10 +975,10 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>1.10856261952128</v>
+        <v>0.364643113587909</v>
       </c>
       <c r="E19" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -990,10 +990,10 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19" t="n">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="P19" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>-2.20727491318972</v>
+        <v>1.39128190263093</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
-        <v>-0.136851044617763</v>
+        <v>0.079303068449963</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -1020,10 +1020,10 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="P20" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -1035,27 +1035,27 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>1.63705307946707</v>
+        <v>-0.186329578191493</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="n">
-        <v>-0.362946920532926</v>
+        <v>-2.18632957819149</v>
       </c>
       <c r="J21" t="n">
-        <v>3.63705307946707</v>
+        <v>1.81367042180851</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="P21" t="n">
-        <v>224</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22">
@@ -1067,10 +1067,10 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>0.924258901523332</v>
+        <v>0.615185639090233</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07</v>
+        <v>0.75</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -1078,7 +1078,7 @@
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" t="n">
-        <v>0.085</v>
+        <v>0.517</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -1095,18 +1095,18 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>0.955511445027436</v>
+        <v>1.66770682055808</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
-        <v>0.00668858011519206</v>
+        <v>0.125078011541856</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" t="n">
-        <v>0.044</v>
+        <v>0.171</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -1123,20 +1123,20 @@
       </c>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>0.806475865866949</v>
+        <v>1.79009141212736</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="n">
-        <v>-1.19352413413305</v>
+        <v>-0.209908587872642</v>
       </c>
       <c r="J24" t="n">
-        <v>2.80647586586695</v>
+        <v>3.79009141212736</v>
       </c>
       <c r="K24" t="n">
-        <v>0.485</v>
+        <v>0.365</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -1153,10 +1153,10 @@
       </c>
       <c r="C25"/>
       <c r="D25" t="n">
-        <v>1.10856261952128</v>
+        <v>-0.49429632181478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1165,14 +1165,14 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>0.022</v>
+        <v>0.002</v>
       </c>
       <c r="M25" t="n">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="N25"/>
       <c r="O25" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P25"/>
     </row>
@@ -1185,11 +1185,11 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="n">
-        <v>1.39624469197306</v>
+        <v>1.52605630349505</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
-        <v>0.0753972133665452</v>
+        <v>0.0991936597271782</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1197,14 +1197,14 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>0.018</v>
+        <v>0.154</v>
       </c>
       <c r="M26" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="N26"/>
       <c r="O26" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P26"/>
     </row>
@@ -1217,28 +1217,28 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>0.854415328156068</v>
+        <v>-1.83258146374831</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>-1.14558467184393</v>
+        <v>-3.83258146374831</v>
       </c>
       <c r="J27" t="n">
-        <v>2.85441532815607</v>
+        <v>0.16741853625169</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>0.066</v>
+        <v>0.004</v>
       </c>
       <c r="M27" t="n">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="P27"/>
     </row>

--- a/tables/or.xlsx
+++ b/tables/or.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">or</t>
   </si>
   <si>
@@ -62,13 +68,25 @@
     <t xml:space="preserve">n_controls</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+RR+NNT+D+G+R+Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">or_se</t>
   </si>
   <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR+NNT+D+G+R+Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or_ci</t>
+  </si>
+  <si>
     <t xml:space="preserve">or_pval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or_ci</t>
   </si>
 </sst>
 </file>
@@ -449,19 +467,29 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.93</v>
+      </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -471,184 +499,214 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" t="n">
-        <v>116</v>
-      </c>
-      <c r="P2" t="n">
-        <v>81</v>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" t="n">
+        <v>149</v>
+      </c>
+      <c r="R2" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F3"/>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
+        <v>0.657520002916794</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" t="n">
-        <v>472</v>
-      </c>
-      <c r="N3" t="n">
-        <v>475</v>
-      </c>
+      <c r="M3"/>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>281</v>
+      </c>
+      <c r="R3" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>0.25428</v>
-      </c>
-      <c r="G4"/>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>0.12</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4" t="n">
-        <v>149</v>
-      </c>
-      <c r="N4" t="n">
-        <v>147</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>200</v>
+      </c>
+      <c r="P4" t="n">
+        <v>209</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.38</v>
+      </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.235483392831706</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12.8569576121393</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" t="n">
-        <v>333</v>
-      </c>
-      <c r="N5" t="n">
-        <v>339</v>
-      </c>
+      <c r="M5"/>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>199</v>
+      </c>
+      <c r="R5" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="D6"/>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" t="n">
-        <v>0.96</v>
+        <v>3.05</v>
       </c>
       <c r="F6"/>
-      <c r="G6"/>
+      <c r="G6" t="n">
+        <v>0.23</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6"/>
+      <c r="M6" t="n">
+        <v>0.041</v>
+      </c>
       <c r="N6"/>
-      <c r="O6" t="n">
-        <v>500</v>
-      </c>
-      <c r="P6" t="n">
-        <v>491</v>
-      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" t="n">
-        <v>0.38592</v>
-      </c>
-      <c r="G7"/>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>0.91</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7"/>
+      <c r="N7" t="n">
+        <v>0.17</v>
+      </c>
       <c r="O7" t="n">
-        <v>45</v>
-      </c>
-      <c r="P7" t="n">
-        <v>63</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7" t="n">
+        <v>53</v>
+      </c>
+      <c r="R7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D8"/>
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
       <c r="E8"/>
-      <c r="F8"/>
+      <c r="F8" t="n">
+        <v>0.717839793150317</v>
+      </c>
       <c r="G8" t="n">
-        <v>0.112328285086389</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.13291656211244</v>
-      </c>
+        <v>0.66</v>
+      </c>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -656,363 +714,447 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>432</v>
+        <v>148</v>
       </c>
       <c r="P8" t="n">
-        <v>425</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Q8"/>
+      <c r="R8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>0.322083499169113</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.32</v>
+      </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="n">
-        <v>0.145</v>
-      </c>
+      <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
+      <c r="Q9" t="n">
+        <v>270</v>
+      </c>
+      <c r="R9" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D10"/>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
       <c r="E10"/>
       <c r="F10" t="n">
-        <v>0.03869</v>
-      </c>
-      <c r="G10"/>
+        <v>1.11514159061932</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.93</v>
+      </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" t="n">
-        <v>0.267</v>
-      </c>
+      <c r="K10"/>
       <c r="L10"/>
-      <c r="M10"/>
+      <c r="M10" t="n">
+        <v>0.145</v>
+      </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D11"/>
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
       <c r="E11"/>
-      <c r="F11"/>
+      <c r="F11" t="n">
+        <v>1.11514159061932</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.81065834658731</v>
-      </c>
-      <c r="H11" t="n">
-        <v>44.2604460325946</v>
-      </c>
+        <v>0.93</v>
+      </c>
+      <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" t="n">
-        <v>0.033</v>
-      </c>
+      <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
+      <c r="N11" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="O11" t="n">
+        <v>135</v>
+      </c>
       <c r="P11"/>
+      <c r="Q11" t="n">
+        <v>72</v>
+      </c>
+      <c r="R11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D12"/>
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" t="n">
-        <v>0.14</v>
+        <v>0.85</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+      <c r="I12" t="n">
+        <v>0.115034990751121</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.28069768409105</v>
+      </c>
       <c r="K12"/>
-      <c r="L12" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="M12" t="n">
-        <v>129</v>
-      </c>
+      <c r="L12"/>
+      <c r="M12"/>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>66</v>
-      </c>
-      <c r="P12"/>
+        <v>500</v>
+      </c>
+      <c r="P12" t="n">
+        <v>502</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" t="n">
-        <v>0.000644</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="I13" t="n">
+        <v>0.177289221039963</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9.67966348959915</v>
+      </c>
       <c r="K13"/>
-      <c r="L13" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="M13" t="n">
-        <v>138</v>
-      </c>
+      <c r="L13"/>
+      <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" t="n">
-        <v>70</v>
-      </c>
+      <c r="O13"/>
       <c r="P13"/>
+      <c r="Q13" t="n">
+        <v>316</v>
+      </c>
+      <c r="R13" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.76</v>
+      </c>
       <c r="F14"/>
-      <c r="G14" t="n">
-        <v>0.021653645317858</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.1822489758289</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" t="n">
+        <v>0.779531231442889</v>
+      </c>
+      <c r="J14" t="n">
+        <v>42.5609631298405</v>
+      </c>
       <c r="K14"/>
-      <c r="L14" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="L14"/>
       <c r="M14" t="n">
-        <v>109</v>
+        <v>0.594</v>
       </c>
       <c r="N14"/>
-      <c r="O14" t="n">
-        <v>35</v>
-      </c>
+      <c r="O14"/>
       <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="n">
-        <v>1.08518926833597</v>
-      </c>
-      <c r="E15"/>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.69</v>
+      </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="I15" t="n">
+        <v>0.0933813454332627</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.09844870826215</v>
+      </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15"/>
+      <c r="N15" t="n">
+        <v>0.192</v>
+      </c>
       <c r="O15" t="n">
-        <v>149</v>
-      </c>
-      <c r="P15" t="n">
-        <v>126</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="n">
+        <v>63</v>
+      </c>
+      <c r="R15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16" t="n">
-        <v>1.19088756477728</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F16"/>
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="n">
+        <v>-0.162518929497775</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16" t="n">
-        <v>445</v>
-      </c>
-      <c r="N16" t="n">
-        <v>451</v>
-      </c>
-      <c r="O16"/>
-      <c r="P16"/>
+      <c r="K16" t="n">
+        <v>-2.16251892949778</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.83748107050223</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16" t="n">
+        <v>281</v>
+      </c>
+      <c r="P16" t="n">
+        <v>274</v>
+      </c>
+      <c r="Q16"/>
+      <c r="R16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17" t="n">
-        <v>1.18172719537862</v>
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>0.0779939948949887</v>
+        <v>0.27002713721306</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17" t="n">
-        <v>477</v>
-      </c>
-      <c r="N17" t="n">
-        <v>486</v>
-      </c>
+      <c r="K17" t="n">
+        <v>-1.72997286278694</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.27002713721306</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
+      <c r="Q17" t="n">
+        <v>60</v>
+      </c>
+      <c r="R17" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" t="n">
-        <v>0.553885113226438</v>
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
       </c>
       <c r="E18"/>
-      <c r="F18"/>
+      <c r="F18" t="n">
+        <v>1.7509374747078</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" t="n">
-        <v>-1.44611488677356</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.55388511322644</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" t="n">
+        <v>-0.2490625252922</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.7509374747078</v>
+      </c>
       <c r="M18" t="n">
-        <v>234</v>
-      </c>
-      <c r="N18" t="n">
-        <v>240</v>
-      </c>
+        <v>0.448</v>
+      </c>
+      <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19" t="n">
-        <v>0.364643113587909</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F19"/>
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="n">
+        <v>-0.371063681390832</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="K19" t="n">
+        <v>-2.37106368139083</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.62893631860917</v>
+      </c>
       <c r="M19"/>
-      <c r="N19"/>
+      <c r="N19" t="n">
+        <v>0.11</v>
+      </c>
       <c r="O19" t="n">
-        <v>321</v>
-      </c>
-      <c r="P19" t="n">
-        <v>281</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="n">
+        <v>63</v>
+      </c>
+      <c r="R19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20" t="n">
-        <v>1.39128190263093</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" t="n">
-        <v>0.079303068449963</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F20"/>
       <c r="G20"/>
-      <c r="H20"/>
+      <c r="H20" t="n">
+        <v>0.04152</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1020,227 +1162,265 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="P20" t="n">
-        <v>109</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="Q20"/>
+      <c r="R20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21" t="n">
-        <v>-0.186329578191493</v>
-      </c>
-      <c r="E21"/>
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21" t="n">
-        <v>-2.18632957819149</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.81367042180851</v>
-      </c>
+      <c r="H21" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" t="n">
-        <v>344</v>
-      </c>
-      <c r="P21" t="n">
-        <v>336</v>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21" t="n">
+        <v>284</v>
+      </c>
+      <c r="R21" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22" t="n">
-        <v>0.615185639090233</v>
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
       </c>
       <c r="E22" t="n">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
+      <c r="H22" t="n">
+        <v>0.0483</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22" t="n">
-        <v>0.517</v>
-      </c>
+      <c r="K22"/>
       <c r="L22"/>
-      <c r="M22"/>
+      <c r="M22" t="n">
+        <v>0.011</v>
+      </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" t="n">
-        <v>1.66770682055808</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23" t="n">
-        <v>0.125078011541856</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
+      <c r="H23" t="n">
+        <v>0.12376</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
-      <c r="K23" t="n">
-        <v>0.171</v>
-      </c>
+      <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
+      <c r="N23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O23" t="n">
+        <v>122</v>
+      </c>
       <c r="P23"/>
+      <c r="Q23" t="n">
+        <v>60</v>
+      </c>
+      <c r="R23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24" t="n">
-        <v>1.79009141212736</v>
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
       </c>
       <c r="E24"/>
-      <c r="F24"/>
+      <c r="F24" t="n">
+        <v>1.24126858906963</v>
+      </c>
       <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24" t="n">
-        <v>-0.209908587872642</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.79009141212736</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.365</v>
-      </c>
+      <c r="H24" t="n">
+        <v>0.22836</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
+      <c r="O24" t="n">
+        <v>258</v>
+      </c>
+      <c r="P24" t="n">
+        <v>251</v>
+      </c>
+      <c r="Q24"/>
+      <c r="R24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" t="n">
-        <v>-0.49429632181478</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F25"/>
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
       <c r="G25"/>
-      <c r="H25"/>
+      <c r="H25" t="n">
+        <v>0.032</v>
+      </c>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M25" t="n">
-        <v>162</v>
-      </c>
+      <c r="L25"/>
+      <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" t="n">
-        <v>64</v>
-      </c>
+      <c r="O25"/>
       <c r="P25"/>
+      <c r="Q25" t="n">
+        <v>403</v>
+      </c>
+      <c r="R25" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26" t="n">
-        <v>1.52605630349505</v>
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
-        <v>0.0991936597271782</v>
+        <v>0.741937344729377</v>
       </c>
       <c r="G26"/>
-      <c r="H26"/>
+      <c r="H26" t="n">
+        <v>0.1953</v>
+      </c>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26" t="n">
-        <v>0.154</v>
-      </c>
+      <c r="L26"/>
       <c r="M26" t="n">
-        <v>115</v>
+        <v>0.514</v>
       </c>
       <c r="N26"/>
-      <c r="O26" t="n">
-        <v>73</v>
-      </c>
+      <c r="O26"/>
       <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" t="n">
-        <v>-1.83258146374831</v>
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
       </c>
       <c r="E27"/>
-      <c r="F27"/>
+      <c r="F27" t="n">
+        <v>0.307484699747961</v>
+      </c>
       <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" t="n">
-        <v>-3.83258146374831</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.16741853625169</v>
-      </c>
+      <c r="H27" t="n">
+        <v>0.12648</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
       <c r="K27"/>
-      <c r="L27" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="M27" t="n">
-        <v>135</v>
-      </c>
-      <c r="N27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27" t="n">
+        <v>0.172</v>
+      </c>
       <c r="O27" t="n">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="P27"/>
+      <c r="Q27" t="n">
+        <v>67</v>
+      </c>
+      <c r="R27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/or.xlsx
+++ b/tables/or.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -26,43 +26,40 @@
     <t xml:space="preserve">converted_es</t>
   </si>
   <si>
+    <t xml:space="preserve">(log)or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logor_se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logor_pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(log)or_ci_lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(log)or_ci_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline_risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small_margin_prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_controls</t>
+  </si>
+  <si>
     <t xml:space="preserve">or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logor_se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logor_pval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or_ci_lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or_ci_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logor_ci_lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logor_ci_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baseline_risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small_margin_prop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_nexp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_controls</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
@@ -461,28 +458,22 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="n">
-        <v>5.56</v>
+        <v>2.92</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -492,68 +483,64 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2" t="n">
-        <v>164</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>179</v>
+      <c r="N2" t="n">
+        <v>461</v>
+      </c>
+      <c r="O2" t="n">
+        <v>472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03</v>
+        <v>5.59</v>
       </c>
       <c r="F3" t="n">
-        <v>0.45</v>
+        <v>0.81</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" t="n">
-        <v>423</v>
-      </c>
-      <c r="O3" t="n">
-        <v>419</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="L3" t="n">
+        <v>261</v>
+      </c>
+      <c r="M3" t="n">
+        <v>261</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>4.27</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.66</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -562,287 +549,271 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4" t="n">
-        <v>399</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>375</v>
+      <c r="N4" t="n">
+        <v>162</v>
+      </c>
+      <c r="O4" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>1.39</v>
+        <v>4.07</v>
       </c>
       <c r="F5" t="n">
-        <v>0.38</v>
+        <v>0.82</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5"/>
+      <c r="J5" t="n">
+        <v>0.017</v>
+      </c>
       <c r="K5"/>
-      <c r="L5" t="n">
-        <v>0.17</v>
-      </c>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2.18</v>
+        <v>4.02</v>
       </c>
       <c r="F6" t="n">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" t="n">
-        <v>0.054</v>
-      </c>
+      <c r="K6" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L6" t="n">
+        <v>92</v>
+      </c>
+      <c r="M6"/>
       <c r="N6" t="n">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>87</v>
-      </c>
-      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.0433072906357161</v>
+        <v>0.0203002924854919</v>
       </c>
       <c r="I7" t="n">
-        <v>2.36449795165781</v>
+        <v>1.1083584148396</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7" t="n">
-        <v>451</v>
-      </c>
-      <c r="O7" t="n">
-        <v>450</v>
-      </c>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="L7" t="n">
+        <v>424</v>
+      </c>
+      <c r="M7" t="n">
+        <v>429</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>2.36</v>
+        <v>4.11</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.319391268438406</v>
+        <v>0.556228014102478</v>
       </c>
       <c r="I8" t="n">
-        <v>17.4381723934763</v>
+        <v>30.369020566605</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>544</v>
+      <c r="N8" t="n">
+        <v>497</v>
+      </c>
+      <c r="O8" t="n">
+        <v>476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>2.47</v>
+        <v>0.83</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="n">
-        <v>0.334278149594433</v>
+        <v>0.112328285086389</v>
       </c>
       <c r="I9" t="n">
-        <v>18.2509685643587</v>
-      </c>
-      <c r="J9"/>
+        <v>6.13291656211244</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.589</v>
+      </c>
       <c r="K9"/>
-      <c r="L9" t="n">
-        <v>0.331</v>
-      </c>
+      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>5.67</v>
+        <v>3.15</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="n">
-        <v>0.767351055951594</v>
+        <v>0.42630614219533</v>
       </c>
       <c r="I10" t="n">
-        <v>41.8959480809368</v>
+        <v>23.2755267116315</v>
       </c>
       <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10" t="n">
-        <v>0.096</v>
-      </c>
+      <c r="K10" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="L10" t="n">
+        <v>110</v>
+      </c>
+      <c r="M10"/>
       <c r="N10" t="n">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="O10"/>
-      <c r="P10" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>3.34</v>
+        <v>3.08</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>0.1503</v>
+        <v>0.24948</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" t="n">
-        <v>162</v>
-      </c>
-      <c r="O11" t="n">
-        <v>153</v>
-      </c>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="L11" t="n">
+        <v>450</v>
+      </c>
+      <c r="M11" t="n">
+        <v>458</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>0.39</v>
+        <v>5.05</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>0.00117</v>
+        <v>0.3333</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -850,84 +821,78 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12" t="n">
-        <v>312</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>359</v>
+      <c r="N12" t="n">
+        <v>181</v>
+      </c>
+      <c r="O12" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>5.2</v>
+        <v>2.62</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>0.1976</v>
+        <v>0.21484</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13"/>
+      <c r="J13" t="n">
+        <v>0.521</v>
+      </c>
       <c r="K13"/>
-      <c r="L13" t="n">
-        <v>0.18</v>
-      </c>
+      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>3.21</v>
+        <v>0.73</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>0.31458</v>
+        <v>0.05475</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14" t="n">
-        <v>0.052</v>
-      </c>
+      <c r="K14" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="L14" t="n">
+        <v>129</v>
+      </c>
+      <c r="M14"/>
       <c r="N14" t="n">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="O14"/>
-      <c r="P14" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
